--- a/yasusan2/プログラム説明.xlsx
+++ b/yasusan2/プログラム説明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agcgr-my.sharepoint.com/personal/yusei_murata_agc_com/Documents/デスクトップ/dx/coconara/yasusan2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdy03\Desktop\coconara\yasusan2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_AEB1A49B7D70DCC6E866BD2AAB90477660691F8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D1810FC-65D6-4404-B54C-556E4B8BAF19}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A590DC2-E98E-4284-AD91-8B894E3E86C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="141">
   <si>
     <t>着順</t>
   </si>
@@ -471,22 +471,6 @@
     <t>413</t>
   </si>
   <si>
-    <t>シート名 結果_11 を例に話をすすめます。</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ハナシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>下図のように選択したとします。</t>
     <rPh sb="0" eb="2">
       <t>シタズ</t>
@@ -551,6 +535,231 @@
     <t>の3点となります。</t>
     <rPh sb="1" eb="2">
       <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シート名 結果_11 参考にします。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボックスの場合は下記図のように選択をしてください。</t>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この場合は、[2,8,11,14]のボックスとなります。</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-11-14</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>の3点となります。</t>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>このような変わった集計も可能です。</t>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この場合の買い目は</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6-8-11</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-11-12</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>となります。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>買い目はいろいろ調整できるので</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ご自身の理想の買い目を探してみてください。</t>
+    <rPh sb="1" eb="3">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>次に下限頭数と上限頭数を設定します。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上記のように選択すると</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１０頭以上のレースかつ１８頭以下のレースを集計します。</t>
+    <rPh sb="2" eb="5">
+      <t>トウイジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>トウイカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>どちらも、以下以上となりますので注意してください。</t>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>次に集計するレースを選びます。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>このように</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8,9,10,11,12 を選択すると</t>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>８R～12Rまでを集計いたします。</t>
+    <rPh sb="9" eb="11">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>送付させていただいた集計テスト_tkinter.exeファイルを開きながら確認をお願いします。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウフ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ネガ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -720,13 +929,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>397201</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>158933</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -764,13 +973,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>604569</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -808,13 +1017,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -852,13 +1061,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>379676</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -896,13 +1105,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2797</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -928,6 +1137,182 @@
         <a:xfrm>
           <a:off x="0" y="11061700"/>
           <a:ext cx="2549147" cy="2127250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>671146</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344BE53A-C36F-C0AB-F06C-001A91C71B38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14916151"/>
+          <a:ext cx="2823796" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676529</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DD1846-CD89-3FDB-0B0F-DB61CA4EF6BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18345150"/>
+          <a:ext cx="2829179" cy="2371725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638820</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>133680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A346EA-F129-31CA-F60C-95C4EB0E96AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21945600"/>
+          <a:ext cx="4620270" cy="2362530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19353</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>76330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AD84C7-235E-3D49-030F-10889F9EB514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="25031700"/>
+          <a:ext cx="2172003" cy="933580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1224,15 +1609,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1140CA28-311B-42CC-9906-A3441E3C000C}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1242,88 +1630,711 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="70" spans="1:8">
+      <c r="F70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="F71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="F72" s="10">
+        <v>2</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="F73" s="8">
+        <v>8</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H73" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="F74" s="14">
+        <v>11</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="F75" s="6">
+        <v>14</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H75" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="F76" s="11">
+        <v>6</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H76" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="F77" s="14">
+        <v>12</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H77" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="F78" s="12">
+        <v>9</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H78" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="F79" s="11">
+        <v>5</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H79" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="F80" s="13">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H80" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="F81" s="5">
+        <v>4</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H81" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="F82" s="8">
+        <v>7</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="F83" s="12">
+        <v>10</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H83" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="F84" s="6">
+        <v>13</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H84" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="F85" s="5">
+        <v>3</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H85" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="15" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="15" t="s">
+      <c r="B86" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C84" s="15" t="s">
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="15" t="s">
-        <v>120</v>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="F90" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="F91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="F92" s="10">
+        <v>2</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="F93" s="8">
+        <v>8</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H93" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="F94" s="14">
+        <v>11</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H94" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="F95" s="6">
+        <v>14</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H95" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="F96" s="11">
+        <v>6</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H96" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="F97" s="14">
+        <v>12</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H97" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="F98" s="12">
+        <v>9</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H98" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="F99" s="11">
+        <v>5</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H99" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="F100" s="13">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H100" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="F101" s="5">
+        <v>4</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H101" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="F102" s="8">
+        <v>7</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H102" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="F103" s="12">
+        <v>10</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H103" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104" s="6">
+        <v>13</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H104" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>115</v>
+      </c>
+      <c r="F105" s="5">
+        <v>3</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H105" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="F110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="F111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="F112" s="10">
+        <v>2</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="F113" s="8">
+        <v>8</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H113" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="F114" s="14">
+        <v>11</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H114" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="F115" s="6">
+        <v>14</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H115" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="F116" s="11">
+        <v>6</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H116" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="F117" s="14">
+        <v>12</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H117" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="F118" s="12">
+        <v>9</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H118" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="F119" s="11">
+        <v>5</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H119" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="F120" s="13">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H120" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="F121" s="5">
+        <v>4</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H121" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="F122" s="8">
+        <v>7</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H122" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="F123" s="12">
+        <v>10</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H123" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="F124" s="6">
+        <v>13</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H124" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F125" s="5">
+        <v>3</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H125" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1337,9 +2348,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734A907D-4470-40D3-B8A4-921F717B091B}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
